--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -1,71 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <x:si>
+    <x:t>Hello</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +349,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -1,90 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\Excel\発音記号\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_491DA6FAA86089442150D3D6A96DCC8211B6A2DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A5BEDD2-F084-43A5-8985-105BBCD978E5}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <x:si>
-    <x:t>Hello</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>die</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Yu Gothic"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,51 +364,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\Excel\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_491DA6FAA86089442150D3D6A96DCC8211B6A2DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{120ACC4A-DA89-43A2-868C-6CE7BC67081F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_491DA6FAA86089442150D3D6A96DCC8211B6A2DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E6F3DD1-FFB6-40B9-B912-BD3F5401BF38}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,73 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hello</t>
-    </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>həlóʊ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>good</t>
-    </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>gˈʊd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>die</t>
-    </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>dάɪ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>program</t>
-    </r>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>próʊgræm</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,12 +44,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,50 +348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -8,29 +8,84 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\Excel\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_491DA6FAA86089442150D3D6A96DCC8211B6A2DA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E6F3DD1-FFB6-40B9-B912-BD3F5401BF38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{EBA0F44C-85AD-4868-9F78-06F4C31B070A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4850" yWindow="950" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>nɒt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ɚ</t>
+  </si>
+  <si>
+    <t>&lt;span class=phoneticEjjeExt&gt;(弱形)&lt;/span&gt; ən&lt;span class=phoneticEjjeExt&gt;(d)&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +99,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -359,7 +420,36 @@
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <f>COUNTA(A:A)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\Excel\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{EBA0F44C-85AD-4868-9F78-06F4C31B070A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="6_{EBA0F44C-85AD-4868-9F78-06F4C31B070A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C0E9463-E658-4DF2-ABAE-CE3B6F757D01}"/>
   <bookViews>
-    <workbookView xWindow="4850" yWindow="950" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>brˈɔːdk`æst</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -42,9 +48,39 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>and</t>
+      <t>eye</t>
     </r>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>άɪ</t>
+  </si>
+  <si>
+    <t>perceiving</t>
+  </si>
+  <si>
+    <t>pɝˈsivɪŋ</t>
+  </si>
+  <si>
+    <t>jury</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>kˈɔɚt</t>
+  </si>
+  <si>
+    <t>mystic</t>
+  </si>
+  <si>
+    <t>místɪk</t>
+  </si>
+  <si>
+    <t>offense</t>
+  </si>
+  <si>
+    <t>əféns</t>
   </si>
   <si>
     <r>
@@ -54,12 +90,18 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>not</t>
+      <t>coke</t>
     </r>
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>nɒt</t>
+    <t>kóʊk</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>ɪníʃəl</t>
   </si>
   <si>
     <r>
@@ -69,15 +111,645 @@
         <rFont val="Yu Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>or</t>
+      <t>milk</t>
     </r>
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>ɚ</t>
-  </si>
-  <si>
-    <t>&lt;span class=phoneticEjjeExt&gt;(弱形)&lt;/span&gt; ən&lt;span class=phoneticEjjeExt&gt;(d)&lt;/span&gt;</t>
+    <t>mílk</t>
+  </si>
+  <si>
+    <t>physicist</t>
+  </si>
+  <si>
+    <t>fízəsɪst</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>morality</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>mərˈæləṭi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>secret</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>síːkrət</t>
+  </si>
+  <si>
+    <t>vintage</t>
+  </si>
+  <si>
+    <t>vínṭɪdʒ</t>
+  </si>
+  <si>
+    <t>lust</t>
+  </si>
+  <si>
+    <t>lˈʌst</t>
+  </si>
+  <si>
+    <t>restart</t>
+  </si>
+  <si>
+    <t>riˈstɑrt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>murder</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>mˈɚːdɚ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>undertaking</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>`ʌndɚtéɪkɪŋ</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>kəríɚ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>expectation</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>èkspektéɪʃən</t>
+  </si>
+  <si>
+    <t>patience</t>
+  </si>
+  <si>
+    <t>péɪʃəns</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>riˈæləṭi</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>ˈɔːrədʒɪn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>dumping</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ˈdʌmpɪŋ</t>
+  </si>
+  <si>
+    <t>cylinder</t>
+  </si>
+  <si>
+    <t>sílɪndɚ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>terror</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>térɚ</t>
+  </si>
+  <si>
+    <t>seat</t>
+  </si>
+  <si>
+    <t>síːt</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>préʃɚ</t>
+  </si>
+  <si>
+    <t>blessing</t>
+  </si>
+  <si>
+    <t>blésɪŋ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>bishop</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>bíʃəp</t>
+  </si>
+  <si>
+    <t>locating</t>
+  </si>
+  <si>
+    <t>ˈloˌketɪŋ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>bureaucracy</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>bjʊrάkrəsi</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>díkteɪt</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>póʊstɚ</t>
+  </si>
+  <si>
+    <t>conjecture</t>
+  </si>
+  <si>
+    <t>kəndʒéktʃɚ</t>
+  </si>
+  <si>
+    <t>installing</t>
+  </si>
+  <si>
+    <t>ˌɪˈnstɔlɪŋ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>coincidence</t>
+    </r>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>koʊínsədns</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>‐ṭɚ</t>
+  </si>
+  <si>
+    <t>screwing</t>
+  </si>
+  <si>
+    <t>ˈskruɪŋ</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>líːst</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>ˈwɪnɪŋ</t>
+  </si>
+  <si>
+    <t>phenomena</t>
+  </si>
+  <si>
+    <t>fənάmənə</t>
+  </si>
+  <si>
+    <t>intercourse</t>
+  </si>
+  <si>
+    <t>ínṭɚk`ɔɚs</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>əbrìːviéɪʃən</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>gréɪn</t>
+  </si>
+  <si>
+    <t>seeking</t>
+  </si>
+  <si>
+    <t>ˈsikɪŋ</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>stˈʌn</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>díkʃənèri</t>
+  </si>
+  <si>
+    <t>rebuilding</t>
+  </si>
+  <si>
+    <t>riˈbɪldɪŋ</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>fréʃ</t>
+  </si>
+  <si>
+    <t>opposition</t>
+  </si>
+  <si>
+    <t>ὰpəzíʃən</t>
+  </si>
+  <si>
+    <t>gearing</t>
+  </si>
+  <si>
+    <t>gí&lt;span class=phoneticEjjeExt&gt;(ə)&lt;/span&gt;rɪŋ</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>ənˈæləsɪs</t>
+  </si>
+  <si>
+    <t>listening</t>
+  </si>
+  <si>
+    <t>ˈlɪsʌnɪŋ</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>ʃíp</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>rékt`æŋgl</t>
+  </si>
+  <si>
+    <t>vacancy</t>
+  </si>
+  <si>
+    <t>véɪk&lt;span class=phoneticEjjeExt&gt;(ə)&lt;/span&gt;nsi</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>æktívəṭi</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>ˈɔːl</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>kríːm</t>
+  </si>
+  <si>
+    <t>instinct</t>
+  </si>
+  <si>
+    <t>ínstɪŋ&lt;span class=phoneticEjjeExt&gt;(k)&lt;/span&gt;t</t>
+  </si>
+  <si>
+    <t>rationale</t>
+  </si>
+  <si>
+    <t>r`æʃənˈæl</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>mˈærid</t>
+  </si>
+  <si>
+    <t>fundamentalist</t>
+  </si>
+  <si>
+    <t>ˌfʌndʌˈmɛntʌlɪst</t>
+  </si>
+  <si>
+    <t>standpoint</t>
+  </si>
+  <si>
+    <t>stˈæn&lt;span class=phoneticEjjeExt&gt;(d)&lt;/span&gt;p`ɔɪnt</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>tʃˈænl</t>
+  </si>
+  <si>
+    <t>traveling</t>
+  </si>
+  <si>
+    <t>‐v&lt;span class=phoneticEjjeExt&gt;(ə)&lt;/span&gt;lɪŋ</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>άɚtʃ</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>bín</t>
+  </si>
+  <si>
+    <t>prosecution</t>
+  </si>
+  <si>
+    <t>prὰsɪkjúːʃən</t>
+  </si>
+  <si>
+    <t>reminder</t>
+  </si>
+  <si>
+    <t>riˈmaɪndɝ</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>múːvi</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>mém&lt;span class=phoneticEjjeExt&gt;(ə)&lt;/span&gt;ri</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>ˈnoɪŋ</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>rúːlɚ</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>vénjuː</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>wˈʌns</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>g`ærəntíː</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>júːsɪdʒ</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>dὰkjʊménṭəri</t>
+  </si>
+  <si>
+    <t>pointing</t>
+  </si>
+  <si>
+    <t>ˈpɔɪntɪŋ</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>pén</t>
+  </si>
+  <si>
+    <t>vanish</t>
+  </si>
+  <si>
+    <t>vˈænɪʃ</t>
+  </si>
+  <si>
+    <t>representative</t>
+  </si>
+  <si>
+    <t>rèprɪzénṭəṭɪv</t>
+  </si>
+  <si>
+    <t>proliferation</t>
+  </si>
+  <si>
+    <t>prəlìfəréɪʃən</t>
+  </si>
+  <si>
+    <t>megabyte</t>
+  </si>
+  <si>
+    <t>ˈmɛgʌˌbaɪt</t>
+  </si>
+  <si>
+    <t>correcting</t>
+  </si>
+  <si>
+    <t>kɝˈɛktɪŋ</t>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>t&lt;span class=phoneticEjjeExt&gt;(j)&lt;/span&gt;uːtˈɔːriəl</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>bríljənt</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>ˈkɪlɪŋ</t>
+  </si>
+  <si>
+    <t>insisting</t>
+  </si>
+  <si>
+    <t>ˌɪˈnsɪstɪŋ</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>dézɚt</t>
+  </si>
+  <si>
+    <t>clarity</t>
+  </si>
+  <si>
+    <t>klˈærəṭi</t>
+  </si>
+  <si>
+    <t>prejudice</t>
+  </si>
+  <si>
+    <t>prédʒʊdɪs</t>
+  </si>
+  <si>
+    <t>cyclist</t>
+  </si>
+  <si>
+    <t>sάɪklɪst</t>
+  </si>
+  <si>
+    <t>steering</t>
+  </si>
+  <si>
+    <t>ˈstɪrɪŋ</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>rɪspάnsəbl</t>
+  </si>
+  <si>
+    <t>foam</t>
+  </si>
+  <si>
+    <t>fóʊm</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>gˈæðɚ</t>
+  </si>
+  <si>
+    <t>storing</t>
+  </si>
+  <si>
+    <t>ˈstɔrɪŋ</t>
+  </si>
+  <si>
+    <t>dʒˈʊ&lt;span class=phoneticEjjeExt&gt;(ə)&lt;/span&gt;ri</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,16 +1081,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -426,27 +1098,803 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <f>COUNTA(A:A)</f>
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\Excel\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="6_{EBA0F44C-85AD-4868-9F78-06F4C31B070A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F828C059-9EF9-4646-B2D1-80A82932654E}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="6_{EBA0F44C-85AD-4868-9F78-06F4C31B070A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D78DF6D-A1E3-40B7-B35C-5B180F5B8CF9}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <x:si>
     <x:t>broadcast</x:t>
   </x:si>
@@ -766,52 +766,7 @@
     <x:t>ˈstɔrɪŋ</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="Yu Gothic"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>and</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0"/>
-  </x:si>
-  <x:si>
-    <x:t>(弱形) ən(d)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="Yu Gothic"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>not</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0"/>
-  </x:si>
-  <x:si>
-    <x:t>nɒt</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="Yu Gothic"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>or</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0"/>
-  </x:si>
-  <x:si>
-    <x:t>ɚ</x:t>
+    <x:t>Not found</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1156,17 +1111,17 @@
   </x:sheetPr>
   <x:dimension ref="A1:C103"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A104" sqref="A104"/>
+    <x:sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <x:selection activeCell="D101" sqref="D101"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.164062" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.664062" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.082031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1177,7 +1132,7 @@
         <x:f>COUNTA(A:A)</x:f>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -1185,7 +1140,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1193,7 +1148,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -1201,7 +1156,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -1209,7 +1164,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3">
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -1217,7 +1172,7 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:3">
+    <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -1225,7 +1180,7 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:3">
+    <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -1233,7 +1188,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:3">
+    <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -1241,7 +1196,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -1249,7 +1204,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:3">
+    <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1257,7 +1212,7 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:3">
+    <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1265,7 +1220,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:3">
+    <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -1273,7 +1228,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:3">
+    <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -1281,7 +1236,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:3">
+    <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -1289,7 +1244,7 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:3">
+    <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -1297,7 +1252,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:3">
+    <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -1305,7 +1260,7 @@
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:3">
+    <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -1313,7 +1268,7 @@
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:3">
+    <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
@@ -1321,7 +1276,7 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:3">
+    <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -1329,7 +1284,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:3">
+    <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -1337,7 +1292,7 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:3">
+    <x:row r="22" spans="1:4">
       <x:c r="A22" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -1345,7 +1300,7 @@
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:3">
+    <x:row r="23" spans="1:4">
       <x:c r="A23" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
@@ -1353,7 +1308,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:3">
+    <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
@@ -1361,7 +1316,7 @@
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:3">
+    <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
@@ -1369,7 +1324,7 @@
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:3">
+    <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -1377,7 +1332,7 @@
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:3">
+    <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -1385,7 +1340,7 @@
         <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:3">
+    <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
@@ -1393,7 +1348,7 @@
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:3">
+    <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -1401,7 +1356,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:3">
+    <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -1409,7 +1364,7 @@
         <x:v>59</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:3">
+    <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -1417,7 +1372,7 @@
         <x:v>61</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:3">
+    <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1425,7 +1380,7 @@
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:3">
+    <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -1433,7 +1388,7 @@
         <x:v>65</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:3">
+    <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
@@ -1441,7 +1396,7 @@
         <x:v>67</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:3">
+    <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
@@ -1449,7 +1404,7 @@
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:3">
+    <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -1457,7 +1412,7 @@
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:3">
+    <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
@@ -1465,7 +1420,7 @@
         <x:v>73</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:3">
+    <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -1473,7 +1428,7 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:3">
+    <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -1481,7 +1436,7 @@
         <x:v>77</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:3">
+    <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -1489,7 +1444,7 @@
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:3">
+    <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
@@ -1497,7 +1452,7 @@
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:3">
+    <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -1505,7 +1460,7 @@
         <x:v>83</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:3">
+    <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -1513,7 +1468,7 @@
         <x:v>85</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:3">
+    <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
@@ -1521,7 +1476,7 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:3">
+    <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -1529,7 +1484,7 @@
         <x:v>89</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:3">
+    <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
@@ -1537,7 +1492,7 @@
         <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:3">
+    <x:row r="47" spans="1:4">
       <x:c r="A47" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
@@ -1545,7 +1500,7 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:3">
+    <x:row r="48" spans="1:4">
       <x:c r="A48" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -1553,7 +1508,7 @@
         <x:v>95</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:3">
+    <x:row r="49" spans="1:4">
       <x:c r="A49" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
@@ -1561,7 +1516,7 @@
         <x:v>97</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:3">
+    <x:row r="50" spans="1:4">
       <x:c r="A50" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
@@ -1569,7 +1524,7 @@
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:3">
+    <x:row r="51" spans="1:4">
       <x:c r="A51" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -1577,7 +1532,7 @@
         <x:v>101</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:3">
+    <x:row r="52" spans="1:4">
       <x:c r="A52" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
@@ -1585,7 +1540,7 @@
         <x:v>103</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:3">
+    <x:row r="53" spans="1:4">
       <x:c r="A53" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
@@ -1593,7 +1548,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:3">
+    <x:row r="54" spans="1:4">
       <x:c r="A54" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -1601,7 +1556,7 @@
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:3">
+    <x:row r="55" spans="1:4">
       <x:c r="A55" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
@@ -1609,7 +1564,7 @@
         <x:v>109</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:3">
+    <x:row r="56" spans="1:4">
       <x:c r="A56" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
@@ -1617,7 +1572,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:3">
+    <x:row r="57" spans="1:4">
       <x:c r="A57" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
@@ -1625,7 +1580,7 @@
         <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:3">
+    <x:row r="58" spans="1:4">
       <x:c r="A58" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
@@ -1633,7 +1588,7 @@
         <x:v>115</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:3">
+    <x:row r="59" spans="1:4">
       <x:c r="A59" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
@@ -1641,7 +1596,7 @@
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:3">
+    <x:row r="60" spans="1:4">
       <x:c r="A60" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
@@ -1649,7 +1604,7 @@
         <x:v>119</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:3">
+    <x:row r="61" spans="1:4">
       <x:c r="A61" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
@@ -1657,7 +1612,7 @@
         <x:v>121</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:3">
+    <x:row r="62" spans="1:4">
       <x:c r="A62" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
@@ -1665,7 +1620,7 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:3">
+    <x:row r="63" spans="1:4">
       <x:c r="A63" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -1673,7 +1628,7 @@
         <x:v>125</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:3">
+    <x:row r="64" spans="1:4">
       <x:c r="A64" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
@@ -1681,7 +1636,7 @@
         <x:v>127</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:3">
+    <x:row r="65" spans="1:4">
       <x:c r="A65" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
@@ -1689,7 +1644,7 @@
         <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:3">
+    <x:row r="66" spans="1:4">
       <x:c r="A66" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
@@ -1697,7 +1652,7 @@
         <x:v>131</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:3">
+    <x:row r="67" spans="1:4">
       <x:c r="A67" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
@@ -1705,7 +1660,7 @@
         <x:v>133</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:3">
+    <x:row r="68" spans="1:4">
       <x:c r="A68" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
@@ -1713,7 +1668,7 @@
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:3">
+    <x:row r="69" spans="1:4">
       <x:c r="A69" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
@@ -1721,7 +1676,7 @@
         <x:v>137</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:3">
+    <x:row r="70" spans="1:4">
       <x:c r="A70" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
@@ -1729,7 +1684,7 @@
         <x:v>139</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:3">
+    <x:row r="71" spans="1:4">
       <x:c r="A71" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
@@ -1737,7 +1692,7 @@
         <x:v>141</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:3">
+    <x:row r="72" spans="1:4">
       <x:c r="A72" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
@@ -1745,7 +1700,7 @@
         <x:v>143</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:3">
+    <x:row r="73" spans="1:4">
       <x:c r="A73" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
@@ -1753,7 +1708,7 @@
         <x:v>145</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:3">
+    <x:row r="74" spans="1:4">
       <x:c r="A74" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
@@ -1761,7 +1716,7 @@
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:3">
+    <x:row r="75" spans="1:4">
       <x:c r="A75" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
@@ -1769,7 +1724,7 @@
         <x:v>149</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:3">
+    <x:row r="76" spans="1:4">
       <x:c r="A76" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
@@ -1777,7 +1732,7 @@
         <x:v>151</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:3">
+    <x:row r="77" spans="1:4">
       <x:c r="A77" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
@@ -1785,7 +1740,7 @@
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:3">
+    <x:row r="78" spans="1:4">
       <x:c r="A78" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
@@ -1793,7 +1748,7 @@
         <x:v>155</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:3">
+    <x:row r="79" spans="1:4">
       <x:c r="A79" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
@@ -1801,7 +1756,7 @@
         <x:v>157</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:3">
+    <x:row r="80" spans="1:4">
       <x:c r="A80" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
@@ -1809,7 +1764,7 @@
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:3">
+    <x:row r="81" spans="1:4">
       <x:c r="A81" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
@@ -1817,7 +1772,7 @@
         <x:v>161</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:3">
+    <x:row r="82" spans="1:4">
       <x:c r="A82" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
@@ -1825,7 +1780,7 @@
         <x:v>163</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:3">
+    <x:row r="83" spans="1:4">
       <x:c r="A83" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
@@ -1833,7 +1788,7 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:3">
+    <x:row r="84" spans="1:4">
       <x:c r="A84" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
@@ -1841,7 +1796,7 @@
         <x:v>167</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:3">
+    <x:row r="85" spans="1:4">
       <x:c r="A85" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
@@ -1849,7 +1804,7 @@
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:3">
+    <x:row r="86" spans="1:4">
       <x:c r="A86" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
@@ -1857,7 +1812,7 @@
         <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:3">
+    <x:row r="87" spans="1:4">
       <x:c r="A87" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
@@ -1865,7 +1820,7 @@
         <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:3">
+    <x:row r="88" spans="1:4">
       <x:c r="A88" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
@@ -1873,7 +1828,7 @@
         <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:3">
+    <x:row r="89" spans="1:4">
       <x:c r="A89" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
@@ -1881,7 +1836,7 @@
         <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:3">
+    <x:row r="90" spans="1:4">
       <x:c r="A90" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
@@ -1889,7 +1844,7 @@
         <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:3">
+    <x:row r="91" spans="1:4">
       <x:c r="A91" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
@@ -1897,7 +1852,7 @@
         <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:3">
+    <x:row r="92" spans="1:4">
       <x:c r="A92" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
@@ -1905,7 +1860,7 @@
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:3">
+    <x:row r="93" spans="1:4">
       <x:c r="A93" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
@@ -1913,7 +1868,7 @@
         <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:3">
+    <x:row r="94" spans="1:4">
       <x:c r="A94" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
@@ -1921,7 +1876,7 @@
         <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:3">
+    <x:row r="95" spans="1:4">
       <x:c r="A95" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
@@ -1929,7 +1884,7 @@
         <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:3">
+    <x:row r="96" spans="1:4">
       <x:c r="A96" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
@@ -1937,7 +1892,7 @@
         <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:3">
+    <x:row r="97" spans="1:4">
       <x:c r="A97" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
@@ -1945,7 +1900,7 @@
         <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:3">
+    <x:row r="98" spans="1:4">
       <x:c r="A98" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
@@ -1953,7 +1908,7 @@
         <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:3">
+    <x:row r="99" spans="1:4">
       <x:c r="A99" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
@@ -1961,7 +1916,7 @@
         <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:3">
+    <x:row r="100" spans="1:4">
       <x:c r="A100" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -1969,28 +1924,19 @@
         <x:v>199</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:3">
-      <x:c r="A101" s="0" t="s">
+    <x:row r="101" spans="1:4">
+      <x:c r="B101" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:3">
-      <x:c r="A102" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:4">
       <x:c r="B102" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:3">
-      <x:c r="A103" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:4">
       <x:c r="B103" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\Excel\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="6_{587D7D79-574C-43F4-B254-7D66E3DDA31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D716D5D-5A9C-46EA-90A4-A2C1875C8782}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="6_{587D7D79-574C-43F4-B254-7D66E3DDA31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5CE044F8-CC95-4B61-ABF1-563569760574}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
     <x:t>useless</x:t>
   </x:si>
@@ -42,10 +42,16 @@
     <x:t>[júːsləs]</x:t>
   </x:si>
   <x:si>
+    <x:t>役に立たない、無用な、無益な、むだな、へまばかりしでかす、(…に)下手で、無能で</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ig Nobel Prize</x:t>
   </x:si>
   <x:si>
-    <x:t>[Not found]</x:t>
+    <x:t>Not found</x:t>
+  </x:si>
+  <x:si>
+    <x:t>イグノーベル賞、イグ・ノーベル賞</x:t>
   </x:si>
   <x:si>
     <x:t>washer</x:t>
@@ -54,16 +60,38 @@
     <x:t>[ˈwɑʃɝ]</x:t>
   </x:si>
   <x:si>
+    <x:t>洗う人、洗濯婦、洗濯機、洗鉱機、(ボルトの)座金(ざがね)、ワッシャー</x:t>
+  </x:si>
+  <x:si>
     <x:t>anywhere</x:t>
   </x:si>
   <x:si>
     <x:t>[éni(h)wèɚ]</x:t>
   </x:si>
   <x:si>
+    <x:t>どこにでも、どこへでも、どこ(へ)でも…する所に、どこへも(…ない)、どこにも(…ない)、どこかに、…から…のあたり</x:t>
+  </x:si>
+  <x:si>
     <x:t>cooker</x:t>
   </x:si>
   <x:si>
     <x:t>[ˈkʊkɝ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>炊事道具、オーブン、レンジ、料理向きの果物</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="游ゴシック"/>
+        <x:family val="3"/>
+      </x:rPr>
+      <x:t>juaafdnc</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
   </x:si>
 </x:sst>
 </file>
@@ -414,57 +442,99 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A5"/>
+  <x:dimension ref="A1:C11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A1" sqref="A1 A1:A5"/>
+      <x:selection activeCell="A7" sqref="A7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
   <x:cols>
     <x:col min="1" max="1" width="13.664062" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="15.664062" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="123.664062" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
       <x:c r="A3" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="1" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="1" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="1" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="1" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="1"/>

--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\Excel\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="6_{587D7D79-574C-43F4-B254-7D66E3DDA31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5CE044F8-CC95-4B61-ABF1-563569760574}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="6_{587D7D79-574C-43F4-B254-7D66E3DDA31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{696B105A-65BE-4EBA-B0A9-E74B8A8A3861}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>useless</x:t>
   </x:si>
@@ -79,19 +79,6 @@
   </x:si>
   <x:si>
     <x:t>炊事道具、オーブン、レンジ、料理向きの果物</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="游ゴシック"/>
-        <x:family val="3"/>
-      </x:rPr>
-      <x:t>juaafdnc</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0"/>
   </x:si>
 </x:sst>
 </file>
@@ -442,10 +429,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C11"/>
+  <x:dimension ref="A1:A11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A7" sqref="A7"/>
+      <x:selection activeCell="C5" sqref="C5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -511,15 +498,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="A6" s="1" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="1" t="s"/>

--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -1,96 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\Documents\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110226CB-1F18-4D80-95D4-05FEC283B4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00BA41D-5B5E-4445-8C09-66E149AB2519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>commit</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[kəmít]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>委託する、引き渡す、ゆだねる、付する、(…に)身を任す、(審議のために)委員会に付託する、掛かり合いにさせる:、(責任上)引き受ける、(…を)約束する、約束する</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="6"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="3"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="標準" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,35 +385,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="123.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.5" customHeight="1"/>
-    <row r="2" ht="18.5" customHeight="1"/>
-    <row r="3" ht="18.5" customHeight="1"/>
-    <row r="4" ht="18.5" customHeight="1"/>
-    <row r="5" ht="18.5" customHeight="1"/>
-    <row r="6" ht="18.5" customHeight="1"/>
-    <row r="7" ht="18.5" customHeight="1"/>
-    <row r="8" ht="18.5" customHeight="1"/>
-    <row r="9" ht="18.5" customHeight="1"/>
-    <row r="10" ht="18.5" customHeight="1"/>
-    <row r="11" ht="18.5" customHeight="1"/>
-    <row r="12" ht="18.5" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A12"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="18"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.664062" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.832031" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="123.664062" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="3" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="4" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="5" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="6" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="7" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="8" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="9" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="10" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="11" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="12" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+  </x:sheetData>
+  <x:phoneticPr fontId="1"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\Documents\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00BA41D-5B5E-4445-8C09-66E149AB2519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049C39B-A61C-402D-921D-83DC68A1CBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -62,7 +62,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="4">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -76,6 +76,12 @@
       <x:family val="3"/>
       <x:charset val="128"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -392,7 +398,7 @@
   <x:dimension ref="A1:A12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2"/>
+      <x:selection activeCell="B1" sqref="B1 B1:C1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>

--- a/発音記号.xlsx
+++ b/発音記号.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\Documents\発音記号\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\OneDrive - 独立行政法人 国立高等専門学校機構\ドキュメント\application\C#\発音記号\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049C39B-A61C-402D-921D-83DC68A1CBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D107CF-09DC-4062-922E-AA7ADB76D375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -34,25 +34,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color theme="1"/>
-        <x:rFont val="Yu Gothic"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>commit</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0"/>
-  </x:si>
-  <x:si>
-    <x:t>[kəmít]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>委託する、引き渡す、ゆだねる、付する、(…に)身を任す、(審議のために)委員会に付託する、掛かり合いにさせる:、(責任上)引き受ける、(…を)約束する、約束する</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>widely</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[wάɪdli]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>広く、広範囲に、大きく、すこぶる、はなはだしく</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>tourist</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[tˈʊ(ə)rɪst]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>観光(旅行)者、観光客、旅行家、遠征中のスポーツ選手</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>pleasantly</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[plézntli]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>楽しく、愉快に、快活に、愛想よく</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>manner</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[mˈænɚ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>方法、仕方、態度、物腰、様子、挙動、行儀、作法、風習、習慣</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>swimsuit</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[ˈswɪˌmsut]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水泳着</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>bathe</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[béɪð]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>入浴させる、湯を使わせる、入浴する、洗う、(…を)(…に)浸す、(…を)おおう、(…に)いっぱいに注ぐ</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>naked</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[néɪkɪd]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>裸の、裸体の、毛ない、おおいのない、さやを抜いた、葉の落ちた、草木の生えていない、家具などのない、むきだしの、(都市など)無防備の</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>European</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[j`ʊ(ə)rəpíːən]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ヨーロッパの、欧州の、全ヨーロッパ的な、白人の</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Roman</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[róʊmən]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ローマの、(古代)ローマ(人)の、ローマ人風の、(ローマ)カトリックの、鼻梁(びりよう)が高い、(古代)ローマ式の、半円形の、ローマン体の</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>empire</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>[émpɑɪɚ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>帝国、(巨大な企業の)「王国」、皇帝の統治、帝政、(ナポレオン時代のフランスの)帝政時代</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -62,7 +233,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="3">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -76,12 +247,6 @@
       <x:family val="3"/>
       <x:charset val="128"/>
       <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Yu Gothic"/>
-      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -398,7 +563,7 @@
   <x:dimension ref="A1:A12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B1" sqref="B1 B1:C1"/>
+      <x:selection activeCell="A10" sqref="A10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -419,15 +584,105 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="3" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="4" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="5" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="6" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="7" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="8" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="9" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
-    <x:row r="10" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
+    <x:row r="2" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
     <x:row r="11" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
     <x:row r="12" spans="1:3" customFormat="1" ht="18.5" customHeight="1"/>
   </x:sheetData>
